--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2417384.168794721</v>
+        <v>-2419865.08862018</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.813695076354</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
-        <v>338.352745183881</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335564</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851352</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9558991545849</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663269</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579943</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.9880898962998</v>
+        <v>82.26761520104937</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830083</v>
+        <v>273.2149088325461</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913425</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.317792068927</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>135.5963369971331</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594426</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358047</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
         <v>139.1056616719017</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271942</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271157</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292081</v>
+        <v>62.01200608292086</v>
       </c>
       <c r="S13" t="n">
         <v>162.8488787443154</v>
@@ -1582,13 +1582,13 @@
         <v>192.6288026890427</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184863</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>225.2174967367015</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494644</v>
+        <v>239.5570458276845</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763542</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838812</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851354</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>379.955899154585</v>
+        <v>309.4940289283517</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0015790663271</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001941</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579954</v>
+        <v>14.6567831857995</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104942</v>
+        <v>82.26761520104937</v>
       </c>
       <c r="T14" t="n">
-        <v>164.5316806481794</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717756</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689272</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948109</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C16" t="n">
         <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310859</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594428</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719018</v>
+        <v>20.68869925605901</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271944</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271166</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292093</v>
+        <v>62.01200608292086</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443155</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890428</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184865</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367016</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.9298609741659</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
         <v>291.3776085652885</v>
@@ -1850,13 +1850,13 @@
         <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
         <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477344</v>
+        <v>311.096899821414</v>
       </c>
       <c r="H17" t="n">
         <v>220.7124811816014</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245678</v>
+        <v>35.29247858245681</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339011</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>119.3934559514741</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644158</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X17" t="n">
         <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290877</v>
+        <v>93.35153789290881</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249329</v>
+        <v>74.72018981249333</v>
       </c>
       <c r="E19" t="n">
-        <v>72.5386794408501</v>
+        <v>72.53867944085015</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721218</v>
+        <v>71.52576481721222</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330916</v>
+        <v>92.1305250533092</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860171</v>
+        <v>70.85973170860176</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411904</v>
+        <v>84.85683139908183</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432828</v>
+        <v>15.03686946432832</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8737421257228</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6536660704501</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
         <v>212.3165549998938</v>
       </c>
       <c r="V19" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
         <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
-        <v>207.0890643413394</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
         <v>291.3776085652885</v>
@@ -2087,16 +2087,16 @@
         <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359924</v>
+        <v>312.2712996729235</v>
       </c>
       <c r="G20" t="n">
         <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245678</v>
+        <v>35.29247858245681</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V20" t="n">
-        <v>97.90474570419551</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3456855116939</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
         <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3426554503345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290877</v>
+        <v>93.35153789290881</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249329</v>
+        <v>74.72018981249333</v>
       </c>
       <c r="E22" t="n">
-        <v>72.5386794408501</v>
+        <v>72.53867944085015</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721218</v>
+        <v>71.52576481721222</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330916</v>
+        <v>92.1305250533092</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860171</v>
+        <v>70.85973170860176</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411904</v>
+        <v>22.45713720411909</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432828</v>
+        <v>15.03686946432832</v>
       </c>
       <c r="S22" t="n">
-        <v>178.2734363206864</v>
+        <v>178.2734363206857</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704501</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
         <v>212.3165549998938</v>
       </c>
       <c r="V22" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
         <v>151.8143721833181</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
         <v>291.3776085652885</v>
@@ -2324,7 +2324,7 @@
         <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F23" t="n">
         <v>332.9807625359924</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245674</v>
+        <v>35.29247858245681</v>
       </c>
       <c r="T23" t="n">
         <v>130.0226869339011</v>
@@ -2375,16 +2375,16 @@
         <v>177.0998887531829</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8569752644158</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3456855116939</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X23" t="n">
         <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290877</v>
+        <v>93.35153789290881</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249329</v>
+        <v>74.72018981249333</v>
       </c>
       <c r="E25" t="n">
-        <v>72.5386794408501</v>
+        <v>72.53867944085015</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721218</v>
+        <v>71.52576481721222</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330916</v>
+        <v>92.1305250533092</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860171</v>
+        <v>70.85973170860176</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411901</v>
+        <v>22.45713720411907</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432825</v>
+        <v>15.0368694643283</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8737421257228</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6536660704501</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998938</v>
+        <v>274.7162491948569</v>
       </c>
       <c r="V25" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
-        <v>214.2140663782826</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231189</v>
@@ -2570,7 +2570,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2612,7 +2612,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
         <v>302.2658320988205</v>
@@ -2621,7 +2621,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="27">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572827</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124558</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U31" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231189</v>
@@ -3044,7 +3044,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958332</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3086,7 +3086,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
         <v>302.2658320988205</v>
@@ -3095,7 +3095,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="33">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572827</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124558</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
         <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007093</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383239</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052293</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010745</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846426</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482634</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092332</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621587</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>172.8237348705159</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>232.3775161911464</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
         <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007093</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="39">
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383239</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052293</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010745</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846426</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F40" t="n">
-        <v>91.27556587748683</v>
+        <v>91.27556587748734</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
         <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007093</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383239</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052293</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010745</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846426</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>98.02980050866772</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>135.6235431859974</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
@@ -4043,7 +4043,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="45">
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383233</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G46" t="n">
-        <v>119.3005938533749</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333693</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>230.7340562419023</v>
       </c>
       <c r="V46" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>188.838278108486</v>
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1884.431434724389</v>
+        <v>1393.541568121291</v>
       </c>
       <c r="C11" t="n">
-        <v>1542.660985043701</v>
+        <v>1051.771118440603</v>
       </c>
       <c r="D11" t="n">
-        <v>1211.587353696675</v>
+        <v>720.6974870935762</v>
       </c>
       <c r="E11" t="n">
-        <v>852.9911683581543</v>
+        <v>720.6974870935762</v>
       </c>
       <c r="F11" t="n">
-        <v>469.1973308282707</v>
+        <v>336.9036495636924</v>
       </c>
       <c r="G11" t="n">
-        <v>81.3169479329909</v>
+        <v>336.9036495636924</v>
       </c>
       <c r="H11" t="n">
-        <v>81.3169479329909</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001388</v>
@@ -5054,37 +5054,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3256.930983330078</v>
+        <v>3242.507220395988</v>
       </c>
       <c r="T11" t="n">
-        <v>3256.930983330078</v>
+        <v>3063.721540039934</v>
       </c>
       <c r="U11" t="n">
-        <v>3256.930983330078</v>
+        <v>3063.721540039934</v>
       </c>
       <c r="V11" t="n">
-        <v>2953.060163246231</v>
+        <v>2787.746884653523</v>
       </c>
       <c r="W11" t="n">
-        <v>2953.060163246231</v>
+        <v>2462.170296643133</v>
       </c>
       <c r="X11" t="n">
-        <v>2606.786472244875</v>
+        <v>2115.896605641777</v>
       </c>
       <c r="Y11" t="n">
-        <v>2243.839207528787</v>
+        <v>1752.949340925689</v>
       </c>
     </row>
     <row r="12">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>636.6005218029459</v>
+        <v>901.2692096237413</v>
       </c>
       <c r="C13" t="n">
-        <v>636.6005218029459</v>
+        <v>759.5250939555581</v>
       </c>
       <c r="D13" t="n">
-        <v>636.6005218029459</v>
+        <v>636.6005218029461</v>
       </c>
       <c r="E13" t="n">
-        <v>515.8794954802765</v>
+        <v>515.8794954802767</v>
       </c>
       <c r="F13" t="n">
-        <v>396.18161524209</v>
+        <v>396.1816152420901</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6708458765327</v>
+        <v>255.6708458765328</v>
       </c>
       <c r="H13" t="n">
         <v>136.6457263541143</v>
@@ -5197,13 +5197,13 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705058</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402572</v>
+        <v>712.1345656402568</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5212,7 +5212,7 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229849</v>
       </c>
       <c r="P13" t="n">
         <v>2036.240867784764</v>
@@ -5221,28 +5221,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.863719075786</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.369902162336</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.795353991586</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U13" t="n">
-        <v>1456.884554376953</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.39213343079</v>
+        <v>1491.302933045422</v>
       </c>
       <c r="W13" t="n">
-        <v>967.1670306535533</v>
+        <v>1249.326119078064</v>
       </c>
       <c r="X13" t="n">
-        <v>967.1670306535533</v>
+        <v>1249.326119078064</v>
       </c>
       <c r="Y13" t="n">
-        <v>773.5665187697469</v>
+        <v>1055.725607194257</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1823.749336508873</v>
+        <v>1725.053176228254</v>
       </c>
       <c r="C14" t="n">
-        <v>1481.978886828185</v>
+        <v>1383.282726547566</v>
       </c>
       <c r="D14" t="n">
-        <v>1481.978886828185</v>
+        <v>1052.209095200539</v>
       </c>
       <c r="E14" t="n">
-        <v>1123.382701489664</v>
+        <v>1052.209095200539</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5888639597802</v>
+        <v>739.58886395978</v>
       </c>
       <c r="G14" t="n">
         <v>351.7084810645002</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299103</v>
+        <v>81.31694793299116</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5300,28 +5300,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395988</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T14" t="n">
-        <v>3076.313603579646</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U14" t="n">
-        <v>2849.975194113206</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="V14" t="n">
-        <v>2546.104374029359</v>
+        <v>2759.850719956089</v>
       </c>
       <c r="W14" t="n">
-        <v>2546.104374029359</v>
+        <v>2434.274131945698</v>
       </c>
       <c r="X14" t="n">
-        <v>2546.104374029359</v>
+        <v>2088.000440944342</v>
       </c>
       <c r="Y14" t="n">
-        <v>2183.157109313271</v>
+        <v>1725.053176228254</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
         <v>765.151745215813</v>
@@ -5373,10 +5373,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>901.2692096237419</v>
+        <v>418.3126375609372</v>
       </c>
       <c r="C16" t="n">
-        <v>759.5250939555585</v>
+        <v>276.5685218927541</v>
       </c>
       <c r="D16" t="n">
-        <v>636.6005218029464</v>
+        <v>276.5685218927541</v>
       </c>
       <c r="E16" t="n">
-        <v>515.879495480277</v>
+        <v>276.5685218927541</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1816152420902</v>
+        <v>276.5685218927541</v>
       </c>
       <c r="G16" t="n">
-        <v>255.670845876533</v>
+        <v>255.6708458765328</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541144</v>
+        <v>136.6457263541143</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705057</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402569</v>
+        <v>712.1345656402568</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5449,7 +5449,7 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P16" t="n">
         <v>2036.240867784764</v>
@@ -5458,28 +5458,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.863719075785</v>
+        <v>2077.863719075786</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.369902162335</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.795353991585</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.884554376952</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.392133430789</v>
+        <v>1229.39213343079</v>
       </c>
       <c r="W16" t="n">
-        <v>1229.392133430789</v>
+        <v>967.1670306535528</v>
       </c>
       <c r="X16" t="n">
-        <v>1229.392133430789</v>
+        <v>766.3695470152595</v>
       </c>
       <c r="Y16" t="n">
-        <v>1055.725607194258</v>
+        <v>572.7690351314532</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1855.320338666651</v>
+        <v>1829.128881468348</v>
       </c>
       <c r="C17" t="n">
-        <v>1560.999521934037</v>
+        <v>1534.808064735734</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.375523535083</v>
+        <v>1251.18406633678</v>
       </c>
       <c r="E17" t="n">
-        <v>966.228971144636</v>
+        <v>940.0375139463328</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628255</v>
+        <v>603.6933093645223</v>
       </c>
       <c r="G17" t="n">
         <v>289.4540166156192</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912083</v>
@@ -5531,34 +5531,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
         <v>3289.956853344062</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936082</v>
+        <v>3289.956853344062</v>
       </c>
       <c r="U17" t="n">
-        <v>3038.021355480047</v>
+        <v>3289.956853344062</v>
       </c>
       <c r="V17" t="n">
-        <v>2781.600168344274</v>
+        <v>3033.535666208288</v>
       </c>
       <c r="W17" t="n">
-        <v>2781.600168344274</v>
+        <v>2755.408711145971</v>
       </c>
       <c r="X17" t="n">
-        <v>2482.776110290991</v>
+        <v>2456.584653092688</v>
       </c>
       <c r="Y17" t="n">
-        <v>2167.278478522976</v>
+        <v>2141.087021324673</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,10 +5610,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872281</v>
+        <v>632.1517731235544</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671183</v>
+        <v>537.8572904034445</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625796</v>
+        <v>462.3823511989058</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879835</v>
+        <v>389.1109578243097</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978702</v>
+        <v>316.8627105341963</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803862</v>
+        <v>223.8015741167123</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604104</v>
+        <v>152.2260875423671</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
         <v>111.6347488791189</v>
@@ -5698,7 +5698,7 @@
         <v>1912.105791053817</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.061607088441</v>
+        <v>1795.06160708844</v>
       </c>
       <c r="T19" t="n">
         <v>1647.936691865764</v>
@@ -5707,16 +5707,16 @@
         <v>1433.475525199204</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201115</v>
+        <v>1253.432737201114</v>
       </c>
       <c r="W19" t="n">
         <v>1038.657267371951</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817308</v>
+        <v>885.3094166817302</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096708</v>
+        <v>739.1585377459971</v>
       </c>
     </row>
     <row r="20">
@@ -5726,55 +5726,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.320338666651</v>
+        <v>1834.401689310016</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.999521934037</v>
+        <v>1540.080872577401</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.375523535083</v>
+        <v>1256.456874178448</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446365</v>
+        <v>945.3103217880007</v>
       </c>
       <c r="F20" t="n">
         <v>629.8847665628257</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156191</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
         <v>3289.956853344062</v>
@@ -5783,19 +5783,19 @@
         <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>3158.620805936082</v>
+        <v>2979.732029417715</v>
       </c>
       <c r="V20" t="n">
-        <v>3059.727123406591</v>
+        <v>2723.310842281941</v>
       </c>
       <c r="W20" t="n">
-        <v>2781.600168344274</v>
+        <v>2445.183887219624</v>
       </c>
       <c r="X20" t="n">
-        <v>2482.776110290991</v>
+        <v>2146.359829166341</v>
       </c>
       <c r="Y20" t="n">
-        <v>2167.278478522976</v>
+        <v>2146.359829166341</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5835,13 +5835,13 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872281</v>
+        <v>569.1217789872285</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671183</v>
+        <v>474.8272962671186</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625796</v>
+        <v>399.3523570625799</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879835</v>
+        <v>326.0809636879837</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978702</v>
+        <v>253.8327163978704</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803862</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604103</v>
+        <v>89.19609340604109</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.6347488791189</v>
@@ -5935,10 +5935,10 @@
         <v>1912.105791053817</v>
       </c>
       <c r="S22" t="n">
-        <v>1732.031612952114</v>
+        <v>1732.031612952115</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.906697729437</v>
+        <v>1584.906697729438</v>
       </c>
       <c r="U22" t="n">
         <v>1370.445531062878</v>
@@ -5947,13 +5947,13 @@
         <v>1190.402743064788</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6272732356242</v>
+        <v>975.6272732356247</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2794225454039</v>
+        <v>822.2794225454043</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096708</v>
+        <v>676.1285436096712</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.185977056951</v>
+        <v>1862.18597705695</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324337</v>
+        <v>1567.865160324335</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925383</v>
+        <v>1284.241161925382</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349359</v>
+        <v>973.0946095349346</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531251</v>
+        <v>636.7504049531242</v>
       </c>
       <c r="G23" t="n">
         <v>296.3196550059182</v>
@@ -5987,10 +5987,10 @@
         <v>73.37775482248239</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2568857815079</v>
+        <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713545</v>
+        <v>596.0762594713543</v>
       </c>
       <c r="L23" t="n">
         <v>1047.110472719763</v>
@@ -6002,13 +6002,13 @@
         <v>2127.42119445047</v>
       </c>
       <c r="O23" t="n">
-        <v>2630.393665329808</v>
+        <v>2630.393665329807</v>
       </c>
       <c r="P23" t="n">
-        <v>3343.748752776754</v>
+        <v>3343.748752776753</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567317</v>
+        <v>3592.035114532435</v>
       </c>
       <c r="R23" t="n">
         <v>3668.887741124119</v>
@@ -6032,7 +6032,7 @@
         <v>2489.64174868129</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913276</v>
+        <v>2174.144116913275</v>
       </c>
     </row>
     <row r="24">
@@ -6042,70 +6042,70 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.409492871408</v>
+        <v>948.4094928714077</v>
       </c>
       <c r="C24" t="n">
-        <v>773.956463590281</v>
+        <v>773.9564635902807</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290299</v>
+        <v>625.0220539290294</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235743</v>
+        <v>465.7845989235739</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504594</v>
+        <v>319.2500409504588</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830774</v>
+        <v>182.8869407830769</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094483</v>
+        <v>92.38504642094443</v>
       </c>
       <c r="I24" t="n">
         <v>73.37775482248239</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130996</v>
+        <v>167.0550243130997</v>
       </c>
       <c r="K24" t="n">
-        <v>405.319223293447</v>
+        <v>405.3192232934468</v>
       </c>
       <c r="L24" t="n">
-        <v>772.017383606112</v>
+        <v>772.0173836061122</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382883</v>
+        <v>1692.816752382882</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.778031800938</v>
+        <v>2103.778031800937</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.277623277041</v>
+        <v>2414.27762327704</v>
       </c>
       <c r="Q24" t="n">
-        <v>2571.919180923641</v>
+        <v>2571.91918092364</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.774827516156</v>
+        <v>2571.774827516155</v>
       </c>
       <c r="S24" t="n">
-        <v>2442.336941009636</v>
+        <v>2442.336941009635</v>
       </c>
       <c r="T24" t="n">
-        <v>2249.693940687492</v>
+        <v>2249.693940687491</v>
       </c>
       <c r="U24" t="n">
         <v>2021.626093821907</v>
       </c>
       <c r="V24" t="n">
-        <v>1786.473985590165</v>
+        <v>1786.473985590164</v>
       </c>
       <c r="W24" t="n">
-        <v>1532.236628861963</v>
+        <v>1532.236628861962</v>
       </c>
       <c r="X24" t="n">
         <v>1324.38512865643</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775271</v>
+        <v>575.9874173775274</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574173</v>
+        <v>481.6929346574175</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528785</v>
+        <v>406.2179954528788</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782825</v>
+        <v>332.9466020782827</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881692</v>
+        <v>260.6983547881694</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706852</v>
+        <v>167.6372183706853</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179633998</v>
+        <v>96.06173179634004</v>
       </c>
       <c r="I25" t="n">
         <v>73.37775482248239</v>
@@ -6148,19 +6148,19 @@
         <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182944</v>
+        <v>322.4875702182943</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0473686667906</v>
+        <v>639.0473686667904</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2044142663397</v>
+        <v>983.2044142663394</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612790972204</v>
       </c>
       <c r="O25" t="n">
-        <v>1623.942389892618</v>
+        <v>1623.942389892617</v>
       </c>
       <c r="P25" t="n">
         <v>1856.549890326277</v>
@@ -6172,25 +6172,25 @@
         <v>1918.971429444117</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.927245478741</v>
+        <v>1801.92724547874</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.802330256064</v>
+        <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589504</v>
+        <v>1377.311169453177</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.298375591414</v>
+        <v>1197.268381455087</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.522905762251</v>
+        <v>982.4929116259236</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1450609357029</v>
+        <v>829.1450609357032</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999698</v>
+        <v>682.9941819999701</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
@@ -6212,61 +6212,61 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>393.2994530991692</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>727.1188267890157</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.87963479397</v>
+        <v>1178.153040037424</v>
       </c>
       <c r="M26" t="n">
-        <v>2033.429937623799</v>
+        <v>1711.684944709349</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285459</v>
+        <v>2258.463761768131</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164796</v>
+        <v>2761.436232647468</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521974</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
         <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6300,7 +6300,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350174</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557147</v>
       </c>
       <c r="K29" t="n">
-        <v>924.7493799910142</v>
+        <v>727.1188267890151</v>
       </c>
       <c r="L29" t="n">
-        <v>1375.783593239423</v>
+        <v>1178.153040037424</v>
       </c>
       <c r="M29" t="n">
-        <v>1909.315497911347</v>
+        <v>1711.684944709349</v>
       </c>
       <c r="N29" t="n">
-        <v>2456.09431497013</v>
+        <v>2258.463761768131</v>
       </c>
       <c r="O29" t="n">
-        <v>2959.066785849467</v>
+        <v>2761.436232647468</v>
       </c>
       <c r="P29" t="n">
-        <v>3672.421873296413</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D30" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F30" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D31" t="n">
         <v>549.9474938257041</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
         <v>350.0437186415473</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302707</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
         <v>423.2675027973144</v>
@@ -6649,7 +6649,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
@@ -6661,10 +6661,10 @@
         <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519665</v>
+        <v>908.2998821519667</v>
       </c>
     </row>
     <row r="32">
@@ -6686,52 +6686,52 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>924.7493799910142</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L32" t="n">
-        <v>1375.783593239423</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>1909.315497911347</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N32" t="n">
-        <v>2456.09431497013</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O32" t="n">
-        <v>2959.066785849467</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P32" t="n">
-        <v>3672.421873296413</v>
+        <v>3518.923563871313</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3977.401766380301</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
         <v>3346.282596468334</v>
@@ -6774,7 +6774,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873065</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6877,31 +6877,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470375</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103806</v>
@@ -6920,61 +6920,61 @@
         <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.139768046498</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307338</v>
+        <v>581.8252978307331</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710111</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
         <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
         <v>2290.538235362621</v>
@@ -7011,16 +7011,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>499.5850729987473</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C37" t="n">
-        <v>429.3203246446838</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D37" t="n">
-        <v>377.8751198061914</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E37" t="n">
-        <v>328.6334607976416</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F37" t="n">
-        <v>280.4149478735746</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>211.3835458221369</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>1513.842048484845</v>
+        <v>1471.20877751071</v>
       </c>
       <c r="U37" t="n">
-        <v>1224.739181610489</v>
+        <v>1182.105910636353</v>
       </c>
       <c r="V37" t="n">
-        <v>1068.726127978445</v>
+        <v>927.4214224304665</v>
       </c>
       <c r="W37" t="n">
-        <v>834.0013641490044</v>
+        <v>736.6756869673493</v>
       </c>
       <c r="X37" t="n">
-        <v>704.6832478248305</v>
+        <v>607.3575706431753</v>
       </c>
       <c r="Y37" t="n">
-        <v>582.5621032551437</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464971</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912101</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="39">
@@ -7242,22 +7242,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>740.9069705127578</v>
+        <v>642.2355359389146</v>
       </c>
       <c r="C40" t="n">
-        <v>670.6422221586942</v>
+        <v>571.9707875848511</v>
       </c>
       <c r="D40" t="n">
-        <v>619.1970173202018</v>
+        <v>520.5255827463589</v>
       </c>
       <c r="E40" t="n">
-        <v>569.955358311652</v>
+        <v>471.2839237378092</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>379.0863824474179</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>211.3835458221369</v>
       </c>
       <c r="H40" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7357,7 +7357,7 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T40" t="n">
         <v>1612.513483058689</v>
@@ -7369,13 +7369,13 @@
         <v>1266.068997126132</v>
       </c>
       <c r="W40" t="n">
-        <v>1075.323261663015</v>
+        <v>976.6518270891713</v>
       </c>
       <c r="X40" t="n">
-        <v>946.0051453388409</v>
+        <v>847.3337107649975</v>
       </c>
       <c r="Y40" t="n">
-        <v>823.8840007691541</v>
+        <v>725.2125661953108</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7400,13 +7400,13 @@
         <v>581.8252978307332</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912089</v>
@@ -7436,22 +7436,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
         <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
         <v>1999.070337960652</v>
@@ -7479,22 +7479,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>795.5993767202774</v>
+        <v>552.4050786964426</v>
       </c>
       <c r="C43" t="n">
-        <v>725.3346283662138</v>
+        <v>482.1403303423791</v>
       </c>
       <c r="D43" t="n">
-        <v>673.8894235277214</v>
+        <v>430.6951255038869</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>381.4534664953372</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>333.2349535712702</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>165.5321169459892</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1790.301070122839</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>1667.205889266208</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U43" t="n">
-        <v>1476.774456965695</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V43" t="n">
-        <v>1320.761403333652</v>
+        <v>1077.567105309816</v>
       </c>
       <c r="W43" t="n">
-        <v>1130.015667870535</v>
+        <v>886.8213698466993</v>
       </c>
       <c r="X43" t="n">
-        <v>1000.697551546361</v>
+        <v>757.5032535225255</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.5764069766738</v>
+        <v>635.3821089528388</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7716,16 +7716,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>651.076513270286</v>
+        <v>500.9308303909356</v>
       </c>
       <c r="C46" t="n">
-        <v>580.8117649162225</v>
+        <v>430.6660820368721</v>
       </c>
       <c r="D46" t="n">
-        <v>529.3665600777301</v>
+        <v>379.2208771983799</v>
       </c>
       <c r="E46" t="n">
-        <v>480.1249010691804</v>
+        <v>329.9792181898302</v>
       </c>
       <c r="F46" t="n">
-        <v>333.23495357127</v>
+        <v>281.7607052657632</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143257</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1744.449641246691</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1522.683025816217</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1332.251593515704</v>
+        <v>1280.777345210196</v>
       </c>
       <c r="V46" t="n">
-        <v>1176.23853988366</v>
+        <v>1026.09285700431</v>
       </c>
       <c r="W46" t="n">
-        <v>985.4928044205431</v>
+        <v>835.3471215411923</v>
       </c>
       <c r="X46" t="n">
-        <v>856.1746880963691</v>
+        <v>706.0290052170185</v>
       </c>
       <c r="Y46" t="n">
-        <v>734.0535435266823</v>
+        <v>583.9078606473319</v>
       </c>
     </row>
   </sheetData>
@@ -8453,22 +8453,22 @@
         <v>157.2353108430631</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729007</v>
+        <v>184.4039433729008</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389603</v>
+        <v>191.4948909389604</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333066</v>
+        <v>181.0856325333068</v>
       </c>
       <c r="N8" t="n">
-        <v>179.355374883024</v>
+        <v>179.3553748830241</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383989</v>
+        <v>182.8301554383991</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586584</v>
+        <v>190.8908035586585</v>
       </c>
       <c r="Q8" t="n">
         <v>192.0103836266124</v>
@@ -8535,22 +8535,22 @@
         <v>113.6031223372533</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672273</v>
+        <v>105.9629718672274</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253592</v>
+        <v>104.1013981253593</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677649</v>
+        <v>92.30246558677658</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359735</v>
+        <v>106.8829608359736</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798323</v>
+        <v>105.3113487798324</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615457</v>
+        <v>120.8212784615458</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8617,16 +8617,16 @@
         <v>116.1755252564658</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085227</v>
+        <v>119.1996074085228</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140777</v>
+        <v>108.4284123140778</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530924</v>
+        <v>120.6694600530925</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662704</v>
+        <v>122.5080856662705</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>18.01571720694986</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>18.01571720695136</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>124.5185911550046</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,22 +9881,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>274.835176366543</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>124.5185911550038</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>78.40458911672832</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10367,10 +10367,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>78.40458911672832</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>21.13839585591369</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.760636329592671e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6876178001939</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.6567831857995</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>14.2795253047495</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524936</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717754</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>27.61720305046238</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302864</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17.31549659767771</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115013</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310858</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>20.04580592178002</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019106</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335566</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>70.46187022623332</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>12.46614290431432</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302866</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913426</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>118.4169624158427</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494646</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019108</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.73464579080247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>25.92954262632047</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23783,16 +23783,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U17" t="n">
-        <v>57.70643280170881</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3456855116939</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>20.70946286306894</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24023,10 +24023,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531829</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>155.9522295602203</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="21">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81927.63387170383</v>
+        <v>81927.63387170385</v>
       </c>
       <c r="C2" t="n">
         <v>81927.63387170383</v>
       </c>
       <c r="D2" t="n">
-        <v>81929.86698059463</v>
+        <v>81929.8669805946</v>
       </c>
       <c r="E2" t="n">
-        <v>72954.00009049744</v>
+        <v>72954.00009049743</v>
       </c>
       <c r="F2" t="n">
         <v>72954.00009049746</v>
       </c>
       <c r="G2" t="n">
-        <v>79453.08212465351</v>
+        <v>79453.08212465352</v>
       </c>
       <c r="H2" t="n">
         <v>79453.08212465355</v>
       </c>
       <c r="I2" t="n">
-        <v>82104.17698642827</v>
+        <v>82104.17698642831</v>
       </c>
       <c r="J2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="K2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.1769864283</v>
       </c>
       <c r="L2" t="n">
         <v>82104.17698642837</v>
       </c>
       <c r="M2" t="n">
+        <v>82104.17698642836</v>
+      </c>
+      <c r="N2" t="n">
+        <v>82104.17698642831</v>
+      </c>
+      <c r="O2" t="n">
         <v>82104.17698642833</v>
       </c>
-      <c r="N2" t="n">
-        <v>82104.17698642833</v>
-      </c>
-      <c r="O2" t="n">
-        <v>82104.1769864283</v>
-      </c>
       <c r="P2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642836</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552293</v>
+        <v>59764.55367552279</v>
       </c>
       <c r="E3" t="n">
         <v>1089238.972163632</v>
@@ -26378,28 +26378,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487413</v>
+        <v>37580.10929487404</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983369</v>
+        <v>22821.46782983366</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179701</v>
+        <v>25409.43302179695</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487408</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927242</v>
+        <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>430603.4278954651</v>
       </c>
       <c r="E4" t="n">
-        <v>40024.16194364989</v>
+        <v>40024.16194364981</v>
       </c>
       <c r="F4" t="n">
-        <v>40024.16194364973</v>
+        <v>40024.16194364981</v>
       </c>
       <c r="G4" t="n">
-        <v>77052.32230509205</v>
+        <v>77052.32230509201</v>
       </c>
       <c r="H4" t="n">
-        <v>77052.32230509202</v>
+        <v>77052.32230509199</v>
       </c>
       <c r="I4" t="n">
-        <v>90617.5102775438</v>
+        <v>90617.51027754386</v>
       </c>
       <c r="J4" t="n">
-        <v>88960.95519699581</v>
+        <v>88960.95519699575</v>
       </c>
       <c r="K4" t="n">
-        <v>88960.95519699584</v>
+        <v>88960.95519699572</v>
       </c>
       <c r="L4" t="n">
-        <v>88960.95519699581</v>
+        <v>88960.95519699577</v>
       </c>
       <c r="M4" t="n">
+        <v>92183.89891818172</v>
+      </c>
+      <c r="N4" t="n">
+        <v>92183.89891818172</v>
+      </c>
+      <c r="O4" t="n">
         <v>92183.89891818175</v>
       </c>
-      <c r="N4" t="n">
-        <v>92183.89891818175</v>
-      </c>
-      <c r="O4" t="n">
-        <v>92183.89891818172</v>
-      </c>
       <c r="P4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818173</v>
       </c>
     </row>
     <row r="5">
@@ -26479,10 +26479,10 @@
         <v>76569.49036482642</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.49036482642</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521489</v>
+        <v>80518.64312521488</v>
       </c>
       <c r="H5" t="n">
         <v>80518.64312521488</v>
@@ -26494,7 +26494,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
         <v>89377.94167480612</v>
@@ -26503,13 +26503,13 @@
         <v>82518.59730624987</v>
       </c>
       <c r="N5" t="n">
+        <v>82518.59730624985</v>
+      </c>
+      <c r="O5" t="n">
         <v>82518.59730624987</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>82518.59730624985</v>
-      </c>
-      <c r="P5" t="n">
-        <v>82518.59730624987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-404099.9566772613</v>
+        <v>-404104.3702551294</v>
       </c>
       <c r="C6" t="n">
-        <v>-404099.9566772613</v>
+        <v>-404104.3702551295</v>
       </c>
       <c r="D6" t="n">
-        <v>-443587.0200222597</v>
+        <v>-443591.3777724055</v>
       </c>
       <c r="E6" t="n">
-        <v>-1132878.624381611</v>
+        <v>-1133107.378804009</v>
       </c>
       <c r="F6" t="n">
-        <v>-43639.6522179786</v>
+        <v>-43868.40664037705</v>
       </c>
       <c r="G6" t="n">
-        <v>-115697.9926005276</v>
+        <v>-115764.2699720718</v>
       </c>
       <c r="H6" t="n">
-        <v>-78117.88330565335</v>
+        <v>-78184.16067719768</v>
       </c>
       <c r="I6" t="n">
         <v>-117071.3294227913</v>
       </c>
       <c r="J6" t="n">
-        <v>-121644.1529071706</v>
+        <v>-121644.1529071704</v>
       </c>
       <c r="K6" t="n">
-        <v>-96234.71988537362</v>
+        <v>-96234.71988537355</v>
       </c>
       <c r="L6" t="n">
         <v>-133814.8291802476</v>
@@ -26558,10 +26558,10 @@
         <v>-92598.31923800329</v>
       </c>
       <c r="O6" t="n">
-        <v>-92598.31923800327</v>
+        <v>-92598.31923800329</v>
       </c>
       <c r="P6" t="n">
-        <v>-92598.31923800324</v>
+        <v>-92598.31923800323</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790658</v>
+        <v>69.78465283790642</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26756,13 +26756,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="H4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
         <v>917.2219352810298</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951239</v>
+        <v>50.70958360951241</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790658</v>
+        <v>69.78465283790642</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755391</v>
+        <v>1019.992047755392</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873727</v>
+        <v>85.82047987873716</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758485</v>
+        <v>97.11452592758462</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959707</v>
+        <v>648.4664495959709</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434004</v>
+        <v>336.6017083434005</v>
       </c>
       <c r="I8" t="n">
         <v>199.6603204104727</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780174</v>
+        <v>132.2465643780175</v>
       </c>
       <c r="S8" t="n">
         <v>202.6272343036572</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987516</v>
+        <v>90.83829126987517</v>
       </c>
       <c r="S9" t="n">
         <v>168.895076719229</v>
@@ -28032,10 +28032,10 @@
         <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519082</v>
+        <v>84.46220888519083</v>
       </c>
       <c r="K10" t="n">
-        <v>7.6490350509903</v>
+        <v>7.649035050990332</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317049</v>
+        <v>75.62456067317052</v>
       </c>
       <c r="R10" t="n">
         <v>171.6351144437878</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712647</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571907</v>
+        <v>11.49558901075629</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.49558901075542</v>
+        <v>73.89528320571902</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="S22" t="n">
-        <v>11.49558901075554</v>
+        <v>11.49558901075622</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571907</v>
+        <v>11.49558901075596</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="X25" t="n">
-        <v>11.49558901075457</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571902</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859347</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859227</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859348</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>46.72521440565325</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>54.14548214544462</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F40" t="n">
-        <v>54.14548214544442</v>
+        <v>54.14548214544391</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>46.72521440565306</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>54.1454821454445</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G46" t="n">
-        <v>46.72521440565332</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810496</v>
+        <v>55.47778196371061</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413327</v>
+        <v>0.2805413179413321</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366675</v>
+        <v>2.873093772366668</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993324</v>
+        <v>10.81556915993322</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362321</v>
+        <v>23.81059368362316</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207984</v>
+        <v>35.68590767207976</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102691</v>
+        <v>44.27152403102681</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396608</v>
+        <v>49.26060069396597</v>
       </c>
       <c r="N8" t="n">
-        <v>50.0576887135669</v>
+        <v>50.05768871356678</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328777</v>
+        <v>47.26805598328766</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661111</v>
+        <v>40.34219219661102</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783712</v>
+        <v>30.29530624783705</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313226</v>
+        <v>17.62255356313222</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588127</v>
+        <v>6.392835282588113</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288185</v>
+        <v>1.228069619288182</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530662</v>
+        <v>0.02244330543530657</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796481</v>
+        <v>0.1501028381796478</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840286</v>
+        <v>1.449677410840283</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694025</v>
+        <v>5.168014384694014</v>
       </c>
       <c r="J9" t="n">
-        <v>14.1814264790693</v>
+        <v>14.18142647906927</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710572</v>
+        <v>24.23831663710567</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264684</v>
+        <v>32.59140791264677</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665908</v>
+        <v>38.03263579665899</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655681</v>
+        <v>39.03924649655673</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847092</v>
+        <v>35.71328360847085</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449789</v>
+        <v>28.66305863449783</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447579</v>
+        <v>19.16049562447574</v>
       </c>
       <c r="R9" t="n">
-        <v>9.31954288276798</v>
+        <v>9.31954288276796</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608813</v>
+        <v>2.788094384608807</v>
       </c>
       <c r="T9" t="n">
-        <v>0.60501977318902</v>
+        <v>0.6050197731890187</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345275</v>
+        <v>0.009875186722345252</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.125841177248684</v>
+        <v>0.1258411772486837</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811028</v>
+        <v>1.118842466811025</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078607</v>
+        <v>3.784387403078598</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481956</v>
+        <v>8.896971231481936</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489255</v>
+        <v>14.62045677489252</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477253</v>
+        <v>18.70915102477248</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908234</v>
+        <v>19.7261765390823</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115545</v>
+        <v>19.2571321511554</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875036</v>
+        <v>17.78707839875032</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287719</v>
+        <v>15.21991838287716</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852389</v>
+        <v>10.53748257852387</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381734</v>
+        <v>5.658276933381722</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233883</v>
+        <v>2.193068516233878</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625586</v>
+        <v>0.5376850300625575</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564588</v>
+        <v>0.006864064213564574</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32555,7 +32555,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233474</v>
@@ -32564,7 +32564,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P21" t="n">
         <v>447.6103584002926</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32707,40 +32707,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32859,43 +32859,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33181,40 +33181,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T29" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33333,43 +33333,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019275</v>
+        <v>72.49856320019268</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9678061314461</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573246</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806103</v>
+        <v>374.5535259806102</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546666</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097663</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3143851250202</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019263</v>
+        <v>72.49856320019268</v>
       </c>
       <c r="K16" t="n">
         <v>232.967806131446</v>
@@ -36203,7 +36203,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013291</v>
@@ -36212,7 +36212,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>268.8100220106695</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222484</v>
+        <v>77.62891574917614</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>315.3055921237172</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36601,22 +36601,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>827.1370117794545</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36759,16 +36759,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120773</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.9322077637028</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>461.7098777104044</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q29" t="n">
-        <v>329.1988939204478</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -37002,7 +37002,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P31" t="n">
         <v>281.932207763703</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
@@ -37087,10 +37087,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>329.1988939204478</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>80.75159439813847</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887904</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564871</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554017</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597689</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687138</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923316</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597689</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37786,7 +37786,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
